--- a/all/AUD1- Class Detail.xlsx
+++ b/all/AUD1- Class Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFCF88-758F-4A66-A657-495F410FFC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB96798-B814-4742-B5B2-159A8718F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUD1-Class Detail" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>Zone</t>
   </si>
@@ -195,6 +195,54 @@
   </si>
   <si>
     <t>Br.Mohammad Abbas Rizvi</t>
+  </si>
+  <si>
+    <t>Dy.Nazim</t>
+  </si>
+  <si>
+    <t>Class Information</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Teaching</t>
+  </si>
+  <si>
+    <t>Primary (XP-5)</t>
+  </si>
+  <si>
+    <t>Sec.Comm</t>
+  </si>
+  <si>
+    <t>IBP</t>
+  </si>
+  <si>
+    <t>Nazim / TAC</t>
+  </si>
+  <si>
+    <t>Ready to take</t>
+  </si>
+  <si>
+    <t>Asst.Naxim</t>
+  </si>
+  <si>
+    <t>Primary (XP-11)</t>
+  </si>
+  <si>
+    <t>Pri Comm</t>
+  </si>
+  <si>
+    <t>IJP</t>
+  </si>
+  <si>
+    <t>IJP Comm</t>
+  </si>
+  <si>
+    <t>Buzy  - Online</t>
   </si>
 </sst>
 </file>
@@ -294,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -318,15 +366,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -334,8 +399,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -344,9 +411,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -355,7 +426,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -363,6 +436,36 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -377,44 +480,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -422,254 +501,24 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -679,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -704,35 +553,11 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -740,52 +565,85 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,25 +652,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1136,347 +979,446 @@
     <col min="3" max="3" width="27.796875" customWidth="1"/>
     <col min="4" max="4" width="35.09765625" customWidth="1"/>
     <col min="5" max="5" width="26.8984375" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="33">
+      <c r="B5" s="15"/>
+      <c r="C5" s="41">
         <v>42006</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="F10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="E11" s="21"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="E12" s="21"/>
+      <c r="F12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="E13" s="21"/>
+      <c r="F13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="E14" s="21"/>
+      <c r="F14" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="E15" s="21"/>
+      <c r="F15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="E16" s="21"/>
+      <c r="F16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="E17" s="21"/>
+      <c r="F17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="E18" s="21"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="E19" s="21"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="E20" s="21"/>
+      <c r="F20" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="E21" s="21"/>
+      <c r="F21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="C22" s="11"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>13</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="C23" s="11"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="C24" s="11"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>15</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>16</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25">
         <v>17</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{EE616F9F-E10C-43A7-80F0-705F12DD38F7}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{59F50D37-EA79-44DE-8734-C6056377B956}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{EE616F9F-E10C-43A7-80F0-705F12DD38F7}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{59F50D37-EA79-44DE-8734-C6056377B956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/all/AUD1- Class Detail.xlsx
+++ b/all/AUD1- Class Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB96798-B814-4742-B5B2-159A8718F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5087A46B-F337-4A80-B589-8FBB411DE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -511,24 +511,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -617,9 +604,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -984,90 +968,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>42006</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="18"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
@@ -1131,7 +1115,7 @@
       <c r="F12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1152,7 +1136,7 @@
       <c r="F13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -1171,7 +1155,7 @@
       <c r="F14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1192,7 +1176,7 @@
       <c r="F15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1213,7 +1197,7 @@
       <c r="F16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
@@ -1232,7 +1216,7 @@
       <c r="F17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1251,7 +1235,7 @@
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
@@ -1268,7 +1252,7 @@
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="31"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
@@ -1287,7 +1271,7 @@
       <c r="F20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1308,7 +1292,7 @@
       <c r="F21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1323,7 +1307,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="21"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1338,7 +1322,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="21"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1353,7 +1337,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="21"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1368,7 +1352,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="21"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1383,7 +1367,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="21"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1398,12 +1382,9 @@
       <c r="D27" s="8"/>
       <c r="E27" s="26"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
